--- a/full_data.xlsx
+++ b/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\WoW\feral-dps-scale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED941EE-2A94-4597-9970-346C6A2C7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BA032A-F3D0-4F40-B8FF-B9C0810953E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9156" yWindow="3012" windowWidth="37128" windowHeight="16644" xr2:uid="{5E2C6A9E-6D85-4C03-B218-019899125885}"/>
+    <workbookView xWindow="5520" yWindow="900" windowWidth="34440" windowHeight="16644" xr2:uid="{5E2C6A9E-6D85-4C03-B218-019899125885}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>职业</t>
   </si>
@@ -101,10 +101,7 @@
     <t>邪迪凯</t>
   </si>
   <si>
-    <t>猫德(实战)</t>
-  </si>
-  <si>
-    <t>猫德(模拟)</t>
+    <t>猫德</t>
   </si>
 </sst>
 </file>
@@ -218,11 +215,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -539,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D00CC7-8E30-4F52-8BB9-64E809D03BBF}">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,755 +595,734 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>8161.8</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>8462.2900000000009</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>8927.9599999999991</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>9241.0400000000009</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>10125.82</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>11348.7</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>11270.47</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>11475</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>12355.79</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>12008.71</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>7321.88</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>7649.96</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>8466.2199999999993</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>9298.86</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>9273.9</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>9596.61</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>10088.59</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>10097.969999999999</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>10601.76</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>9698.16</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4879.8599999999997</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>6024.93</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>5903.66</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>6858.32</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>7605.37</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>7727.61</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>8254.7199999999993</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>8378.0499999999993</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>8433.24</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>8246.9599999999991</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>8310.33</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>8767.66</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>8606.0300000000007</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>9347.36</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>9877.7800000000007</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>10263.57</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>10575.45</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>10871.81</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>11134.15</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>11284.19</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>7146.51</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>7694.1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8165.58</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>8764.66</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>8962.69</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>9588.91</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>10012.959999999999</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>10105.75</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>10310.84</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>10002.67</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>6162.74</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>5428.8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>6108.65</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>7584.93</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>7708.63</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>6930.82</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>8247.84</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>8705.1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>8203.2900000000009</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>8267.2199999999993</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>7557.15</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>8306.98</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>8473.23</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>8527.17</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>9184.2000000000007</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>9580.33</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>10248.18</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>10255.4</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>11129.51</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>10308.74</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>7442.82</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>8050.66</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>8152.66</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>9302.34</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>9723.9500000000007</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>10129.9</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>10542.18</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>10539.99</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>10502.6</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>10626.45</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>7646.95</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>7136.93</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>7759.29</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>8493.6200000000008</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>8895.65</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>9543.4599999999991</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>9692.0400000000009</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>9839.58</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>9863.31</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>9368.2900000000009</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>7211.55</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>7368.99</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>8242</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>8676.58</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>9830.49</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>9830.94</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>10101.74</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>10444.11</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>9902.61</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>9853.5499999999993</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>7376.43</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>7996.48</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>8705.2900000000009</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>8912.7800000000007</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>10029.42</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>10317.67</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>10297.81</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>10498.42</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>10907.12</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>10422.66</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>6054.3</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>6523.71</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>6884.45</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>7753.78</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>8549.5499999999993</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>9421.56</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>9713.99</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>10213.85</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>9969.67</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>9719.48</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>6742.55</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>7346.32</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>7597.71</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>8564.42</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>9485.36</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>10138.19</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>10243.44</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>11139.56</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>10670.95</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>10333.15</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>6984.34</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>7895.49</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>8281.8700000000008</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>9215.9</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>9133.33</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>9788.75</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>10286.02</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>10601.55</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>10567.78</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>10452.81</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>5776.97</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>7239.61</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>7213.61</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>7623.94</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>7305.64</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>7286.09</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>7868.8</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
         <v>8015.76</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>5451.04</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>5906.39</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>6061.38</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>7130.12</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>8684.42</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>8941.4599999999991</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>9583.7800000000007</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>9992.9699999999993</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>10530.93</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>9756.7199999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>6413.29</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>6267.68</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>6878.93</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>8850.83</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>8737.9599999999991</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>8602.9599999999991</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>9149.81</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>9547.99</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>9471.07</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>10175.65</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>5846.86</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>6145.63</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>6650.44</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>7083.53</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>8131.78</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>8430.19</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>8764.4599999999991</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>8923.34</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>8982.99</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>8940.43</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>6484.35</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>7023.62</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>7358.62</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>8245.7900000000009</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>9086.68</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>10020.799999999999</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>9924.39</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>9820.7000000000007</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>10052.39</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>9852.2099999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>7031.17</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>7360.7</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>7842.03</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>8852.4</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>9271.3799999999992</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>9593.48</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>9903.32</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>10345.34</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>10556.35</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>10425.67</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>7730.78</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>9896.89</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>11317.47</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>11073.35</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>10724.26</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>10910.67</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>11218.05</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <v>12042.21</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>12382.6</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <v>12307.6</v>
-      </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-    </row>
-    <row r="23" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>
